--- a/upload_root/multiChoice.xlsx
+++ b/upload_root/multiChoice.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -60,66 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1+1&gt;=</t>
-  </si>
-  <si>
-    <t>1+2&gt;=</t>
-  </si>
-  <si>
-    <t>1+3&gt;=</t>
-  </si>
-  <si>
-    <t>1+4&gt;=</t>
-  </si>
-  <si>
-    <t>1+5&gt;=</t>
-  </si>
-  <si>
-    <t>1+6&gt;=</t>
-  </si>
-  <si>
-    <t>1+7&gt;=</t>
-  </si>
-  <si>
-    <t>1+8&gt;=</t>
-  </si>
-  <si>
-    <t>1+9&gt;=</t>
-  </si>
-  <si>
-    <t>1+10&gt;=</t>
-  </si>
-  <si>
-    <t>1+11&gt;=</t>
-  </si>
-  <si>
-    <t>1+12&gt;=</t>
-  </si>
-  <si>
-    <t>1+13&gt;=</t>
-  </si>
-  <si>
-    <t>1+14&gt;=</t>
-  </si>
-  <si>
-    <t>1+15&gt;=</t>
-  </si>
-  <si>
-    <t>1+16&gt;=</t>
-  </si>
-  <si>
-    <t>1+17&gt;=</t>
-  </si>
-  <si>
-    <t>1+18&gt;=</t>
-  </si>
-  <si>
-    <t>1+19&gt;=</t>
-  </si>
-  <si>
-    <t>1+20&gt;=</t>
-  </si>
-  <si>
     <t>A,B,C,D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,6 +71,66 @@
   <si>
     <t>多选</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+1&lt;=</t>
+  </si>
+  <si>
+    <t>1+2&lt;=</t>
+  </si>
+  <si>
+    <t>1+3&lt;=</t>
+  </si>
+  <si>
+    <t>1+4&lt;=</t>
+  </si>
+  <si>
+    <t>1+5&lt;=</t>
+  </si>
+  <si>
+    <t>1+6&lt;=</t>
+  </si>
+  <si>
+    <t>1+7&lt;=</t>
+  </si>
+  <si>
+    <t>1+8&lt;=</t>
+  </si>
+  <si>
+    <t>1+9&lt;=</t>
+  </si>
+  <si>
+    <t>1+10&lt;=</t>
+  </si>
+  <si>
+    <t>1+11&lt;=</t>
+  </si>
+  <si>
+    <t>1+12&lt;=</t>
+  </si>
+  <si>
+    <t>1+13&lt;=</t>
+  </si>
+  <si>
+    <t>1+14&lt;=</t>
+  </si>
+  <si>
+    <t>1+15&lt;=</t>
+  </si>
+  <si>
+    <t>1+16&lt;=</t>
+  </si>
+  <si>
+    <t>1+17&lt;=</t>
+  </si>
+  <si>
+    <t>1+18&lt;=</t>
+  </si>
+  <si>
+    <t>1+19&lt;=</t>
+  </si>
+  <si>
+    <t>1+20&lt;=</t>
   </si>
 </sst>
 </file>
@@ -478,11 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -514,12 +514,12 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -540,12 +540,12 @@
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -566,12 +566,12 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -592,12 +592,12 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -612,18 +612,18 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -644,12 +644,12 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -670,12 +670,12 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -696,12 +696,12 @@
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -722,12 +722,12 @@
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -748,12 +748,12 @@
         <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -774,12 +774,12 @@
         <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -800,12 +800,12 @@
         <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -826,12 +826,12 @@
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -852,12 +852,12 @@
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -878,12 +878,12 @@
         <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -904,12 +904,12 @@
         <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -930,12 +930,12 @@
         <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -956,12 +956,12 @@
         <v>8</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -982,12 +982,12 @@
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -1008,12 +1008,12 @@
         <v>8</v>
       </c>
       <c r="H20" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -1034,7 +1034,7 @@
         <v>8</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
